--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2022/ifoCAst_error_tables_full_latest_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2022/ifoCAst_error_tables_full_latest_since_2022_GVA.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01363625476345442</v>
+        <v>-0.01739057681450047</v>
       </c>
       <c r="C2">
-        <v>0.4581648742158994</v>
+        <v>0.4588917497650545</v>
       </c>
       <c r="D2">
-        <v>0.3618774900312016</v>
+        <v>0.3571886251912578</v>
       </c>
       <c r="E2">
-        <v>0.6015625404155428</v>
+        <v>0.5976525957370701</v>
       </c>
       <c r="F2">
-        <v>0.6116891896587744</v>
+        <v>0.6076122229502987</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2112212115238695</v>
+        <v>0.2020935392784192</v>
       </c>
       <c r="C3">
-        <v>0.6630517894739032</v>
+        <v>0.6184300652536038</v>
       </c>
       <c r="D3">
-        <v>0.6302301342268655</v>
+        <v>0.581868977188309</v>
       </c>
       <c r="E3">
-        <v>0.7938703510188962</v>
+        <v>0.7628033673157906</v>
       </c>
       <c r="F3">
-        <v>0.7695425174069324</v>
+        <v>0.7394066550299295</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1179913712969851</v>
+        <v>0.1576667027323599</v>
       </c>
       <c r="C4">
-        <v>0.7356572372172573</v>
+        <v>0.7100091307271836</v>
       </c>
       <c r="D4">
-        <v>0.6126808158133018</v>
+        <v>0.5735266738964355</v>
       </c>
       <c r="E4">
-        <v>0.7827393025863093</v>
+        <v>0.757315438834067</v>
       </c>
       <c r="F4">
-        <v>0.7831747739518514</v>
+        <v>0.7489062053468125</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
